--- a/P11/docs/Scrum_MASS_Sprint_5.xlsx
+++ b/P11/docs/Scrum_MASS_Sprint_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolade Favour\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B603E56-2F77-4521-9F0F-D32F9AA9D757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93CE98B-651A-4662-8067-9589A7DB590C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="214">
   <si>
     <t>Product Name:</t>
   </si>
@@ -781,9 +781,6 @@
     <t>Completed Day 5</t>
   </si>
   <si>
-    <t>Write listiterator for animal</t>
-  </si>
-  <si>
     <t>Finished in Sprint 5</t>
   </si>
   <si>
@@ -794,6 +791,12 @@
   </si>
   <si>
     <t>Completed Day 1</t>
+  </si>
+  <si>
+    <t>Write iterator for animal</t>
+  </si>
+  <si>
+    <t>In Test</t>
   </si>
 </sst>
 </file>
@@ -4037,8 +4040,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ99"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -6113,7 +6116,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H43" s="44"/>
       <c r="I43" s="45" t="s">
@@ -7157,7 +7160,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H44" s="17" t="s">
         <v>104</v>
@@ -7190,7 +7193,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H45" s="17" t="s">
         <v>36</v>
@@ -12194,8 +12197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A13" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -12487,7 +12490,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>207</v>
@@ -12543,7 +12546,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>207</v>
@@ -12557,10 +12560,10 @@
         <v>56</v>
       </c>
       <c r="D23" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="41" t="s">
         <v>211</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5">
